--- a/Data Files/TestData/Free Play hace match con Free Balance en CM (C3792).xlsx
+++ b/Data Files/TestData/Free Play hace match con Free Balance en CM (C3792).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
   <si>
     <t>URL</t>
   </si>
@@ -195,6 +195,21 @@
   </si>
   <si>
     <t>13:34:21.953</t>
+  </si>
+  <si>
+    <t>14/10/2019</t>
+  </si>
+  <si>
+    <t>15:30:52.836</t>
+  </si>
+  <si>
+    <t>15:31:47.176</t>
+  </si>
+  <si>
+    <t>15:33:55.122</t>
+  </si>
+  <si>
+    <t>15:34:54.557</t>
   </si>
 </sst>
 </file>
@@ -576,7 +591,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -585,16 +600,16 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
